--- a/SuppXLS/Scen_ELC_MANHEAT_50_100.xlsx
+++ b/SuppXLS/Scen_ELC_MANHEAT_50_100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AB0016A6-5D7D-4440-A9B5-AEE451CB264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E1EC03-2B42-45D9-B8DD-DF3B3D971781}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AB0016A6-5D7D-4440-A9B5-AEE451CB264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6BE12D0-CC4A-4840-897C-949C3CCD036A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28429471-0859-4B11-9767-CA239E220547}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>~TFM_MIG</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>ETH</t>
   </si>
   <si>
     <t>MANHEAT</t>
@@ -165,6 +162,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,7 +488,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="I7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,14 +540,11 @@
       <c r="D3">
         <v>2030</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
       <c r="H3">
         <v>0.5</v>
@@ -562,14 +560,11 @@
       <c r="D4" s="3">
         <v>2050</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
       </c>
       <c r="H4">
         <v>1</v>
